--- a/out/CE/falselink/Figori_algorithm_6.xlsx
+++ b/out/CE/falselink/Figori_algorithm_6.xlsx
@@ -392,1674 +392,1674 @@
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>0.79269999999999996</v>
+        <v>0.79374999999999996</v>
       </c>
       <c r="B1">
-        <v>0.77105000000000001</v>
+        <v>0.76910000000000001</v>
       </c>
       <c r="C1">
-        <v>0.7782</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="D1">
-        <v>0.77515000000000001</v>
+        <v>0.77154999999999996</v>
       </c>
       <c r="E1">
-        <v>0.80054999999999998</v>
+        <v>0.78364999999999996</v>
       </c>
       <c r="F1">
+        <v>0.77449999999999997</v>
+      </c>
+      <c r="G1">
+        <v>0.77590000000000003</v>
+      </c>
+      <c r="H1">
+        <v>0.79790000000000005</v>
+      </c>
+      <c r="I1">
+        <v>0.77639999999999998</v>
+      </c>
+      <c r="J1">
+        <v>0.78774999999999995</v>
+      </c>
+      <c r="K1">
+        <v>0.79344999999999999</v>
+      </c>
+      <c r="L1">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="M1">
         <v>0.75754999999999995</v>
       </c>
-      <c r="G1">
-        <v>0.76824999999999999</v>
-      </c>
-      <c r="H1">
-        <v>0.80154999999999998</v>
-      </c>
-      <c r="I1">
-        <v>0.79305000000000003</v>
-      </c>
-      <c r="J1">
-        <v>0.79615000000000002</v>
-      </c>
-      <c r="K1">
-        <v>0.78585000000000005</v>
-      </c>
-      <c r="L1">
-        <v>0.77649999999999997</v>
-      </c>
-      <c r="M1">
-        <v>0.80195000000000005</v>
-      </c>
       <c r="N1">
-        <v>0.76519999999999999</v>
+        <v>0.79525000000000001</v>
       </c>
       <c r="O1">
-        <v>0.80200000000000005</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="P1">
-        <v>0.78849999999999998</v>
+        <v>0.79320000000000002</v>
       </c>
       <c r="Q1">
-        <v>0.77300000000000002</v>
+        <v>0.76400000000000001</v>
       </c>
       <c r="R1">
-        <v>0.78215000000000001</v>
+        <v>0.77239999999999998</v>
       </c>
       <c r="S1">
-        <v>0.7873</v>
+        <v>0.76595000000000002</v>
       </c>
       <c r="T1">
-        <v>0.79125000000000001</v>
+        <v>0.78510000000000002</v>
       </c>
       <c r="U1">
-        <v>0.7722</v>
+        <v>0.78625</v>
       </c>
       <c r="V1">
-        <v>0.78339999999999999</v>
+        <v>0.78615000000000002</v>
       </c>
       <c r="W1">
-        <v>0.7853</v>
+        <v>0.78954999999999997</v>
       </c>
       <c r="X1">
+        <v>0.76665000000000005</v>
+      </c>
+      <c r="Y1">
+        <v>0.76754999999999995</v>
+      </c>
+      <c r="Z1">
+        <v>0.78844999999999998</v>
+      </c>
+      <c r="AA1">
+        <v>0.77859999999999996</v>
+      </c>
+      <c r="AB1">
+        <v>0.79364999999999997</v>
+      </c>
+      <c r="AC1">
+        <v>0.80259999999999998</v>
+      </c>
+      <c r="AD1">
+        <v>0.76870000000000005</v>
+      </c>
+      <c r="AE1">
+        <v>0.76964999999999995</v>
+      </c>
+      <c r="AF1">
+        <v>0.79044999999999999</v>
+      </c>
+      <c r="AG1">
+        <v>0.79010000000000002</v>
+      </c>
+      <c r="AH1">
+        <v>0.78034999999999999</v>
+      </c>
+      <c r="AI1">
+        <v>0.77490000000000003</v>
+      </c>
+      <c r="AJ1">
+        <v>0.78439999999999999</v>
+      </c>
+      <c r="AK1">
         <v>0.77334999999999998</v>
       </c>
-      <c r="Y1">
-        <v>0.79715000000000003</v>
-      </c>
-      <c r="Z1">
-        <v>0.79944999999999999</v>
-      </c>
-      <c r="AA1">
-        <v>0.76454999999999995</v>
-      </c>
-      <c r="AB1">
-        <v>0.78110000000000002</v>
-      </c>
-      <c r="AC1">
-        <v>0.78620000000000001</v>
-      </c>
-      <c r="AD1">
-        <v>0.73360000000000003</v>
-      </c>
-      <c r="AE1">
-        <v>0.76570000000000005</v>
-      </c>
-      <c r="AF1">
-        <v>0.78605000000000003</v>
-      </c>
-      <c r="AG1">
-        <v>0.77380000000000004</v>
-      </c>
-      <c r="AH1">
-        <v>0.80864999999999998</v>
-      </c>
-      <c r="AI1">
-        <v>0.80044999999999999</v>
-      </c>
-      <c r="AJ1">
-        <v>0.78644999999999998</v>
-      </c>
-      <c r="AK1">
-        <v>0.7742</v>
-      </c>
       <c r="AL1">
-        <v>0.77569999999999995</v>
+        <v>0.77149999999999996</v>
       </c>
       <c r="AM1">
-        <v>0.80110000000000003</v>
+        <v>0.79744999999999999</v>
       </c>
       <c r="AN1">
-        <v>0.77669999999999995</v>
+        <v>0.79990000000000006</v>
       </c>
       <c r="AO1">
-        <v>0.81040000000000001</v>
+        <v>0.78259999999999996</v>
       </c>
       <c r="AP1">
-        <v>0.77415</v>
+        <v>0.7893</v>
       </c>
       <c r="AQ1">
-        <v>0.79900000000000004</v>
+        <v>0.79395000000000004</v>
       </c>
       <c r="AR1">
-        <v>0.78859999999999997</v>
+        <v>0.77685000000000004</v>
       </c>
       <c r="AS1">
-        <v>0.80659999999999998</v>
+        <v>0.79190000000000005</v>
       </c>
       <c r="AT1">
-        <v>0.77649999999999997</v>
+        <v>0.77969999999999995</v>
       </c>
       <c r="AU1">
-        <v>0.78585000000000005</v>
+        <v>0.7984</v>
       </c>
       <c r="AV1">
-        <v>0.79630000000000001</v>
+        <v>0.81320000000000003</v>
       </c>
       <c r="AW1">
-        <v>0.79900000000000004</v>
+        <v>0.78044999999999998</v>
       </c>
       <c r="AX1">
-        <v>0.76690000000000003</v>
+        <v>0.78720000000000001</v>
       </c>
     </row>
     <row r="2" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A2">
+        <v>0.78385000000000005</v>
+      </c>
+      <c r="B2">
+        <v>0.74995000000000001</v>
+      </c>
+      <c r="C2">
+        <v>0.75860000000000005</v>
+      </c>
+      <c r="D2">
+        <v>0.75595000000000001</v>
+      </c>
+      <c r="E2">
+        <v>0.75914999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.76280000000000003</v>
+      </c>
+      <c r="G2">
+        <v>0.78049999999999997</v>
+      </c>
+      <c r="H2">
+        <v>0.7863</v>
+      </c>
+      <c r="I2">
+        <v>0.76585000000000003</v>
+      </c>
+      <c r="J2">
         <v>0.78069999999999995</v>
       </c>
-      <c r="B2">
-        <v>0.75860000000000005</v>
-      </c>
-      <c r="C2">
-        <v>0.76219999999999999</v>
-      </c>
-      <c r="D2">
-        <v>0.76754999999999995</v>
-      </c>
-      <c r="E2">
-        <v>0.78190000000000004</v>
-      </c>
-      <c r="F2">
-        <v>0.73995</v>
-      </c>
-      <c r="G2">
+      <c r="K2">
+        <v>0.7994</v>
+      </c>
+      <c r="L2">
+        <v>0.76480000000000004</v>
+      </c>
+      <c r="M2">
+        <v>0.75124999999999997</v>
+      </c>
+      <c r="N2">
+        <v>0.76939999999999997</v>
+      </c>
+      <c r="O2">
+        <v>0.77395000000000003</v>
+      </c>
+      <c r="P2">
+        <v>0.79444999999999999</v>
+      </c>
+      <c r="Q2">
+        <v>0.75865000000000005</v>
+      </c>
+      <c r="R2">
+        <v>0.77195000000000003</v>
+      </c>
+      <c r="S2">
+        <v>0.76065000000000005</v>
+      </c>
+      <c r="T2">
+        <v>0.75649999999999995</v>
+      </c>
+      <c r="U2">
+        <v>0.78359999999999996</v>
+      </c>
+      <c r="V2">
+        <v>0.77505000000000002</v>
+      </c>
+      <c r="W2">
+        <v>0.77680000000000005</v>
+      </c>
+      <c r="X2">
+        <v>0.76190000000000002</v>
+      </c>
+      <c r="Y2">
+        <v>0.74704999999999999</v>
+      </c>
+      <c r="Z2">
+        <v>0.77675000000000005</v>
+      </c>
+      <c r="AA2">
+        <v>0.76449999999999996</v>
+      </c>
+      <c r="AB2">
+        <v>0.76905000000000001</v>
+      </c>
+      <c r="AC2">
+        <v>0.78449999999999998</v>
+      </c>
+      <c r="AD2">
+        <v>0.76265000000000005</v>
+      </c>
+      <c r="AE2">
         <v>0.75275000000000003</v>
       </c>
-      <c r="H2">
-        <v>0.79105000000000003</v>
-      </c>
-      <c r="I2">
-        <v>0.76590000000000003</v>
-      </c>
-      <c r="J2">
-        <v>0.78390000000000004</v>
-      </c>
-      <c r="K2">
-        <v>0.78534999999999999</v>
-      </c>
-      <c r="L2">
-        <v>0.77254999999999996</v>
-      </c>
-      <c r="M2">
-        <v>0.78554999999999997</v>
-      </c>
-      <c r="N2">
-        <v>0.74914999999999998</v>
-      </c>
-      <c r="O2">
-        <v>0.79815000000000003</v>
-      </c>
-      <c r="P2">
-        <v>0.77490000000000003</v>
-      </c>
-      <c r="Q2">
-        <v>0.76970000000000005</v>
-      </c>
-      <c r="R2">
-        <v>0.77490000000000003</v>
-      </c>
-      <c r="S2">
-        <v>0.77925</v>
-      </c>
-      <c r="T2">
-        <v>0.78180000000000005</v>
-      </c>
-      <c r="U2">
-        <v>0.76549999999999996</v>
-      </c>
-      <c r="V2">
-        <v>0.77995000000000003</v>
-      </c>
-      <c r="W2">
-        <v>0.76185000000000003</v>
-      </c>
-      <c r="X2">
-        <v>0.76365000000000005</v>
-      </c>
-      <c r="Y2">
-        <v>0.77370000000000005</v>
-      </c>
-      <c r="Z2">
-        <v>0.78790000000000004</v>
-      </c>
-      <c r="AA2">
-        <v>0.75414999999999999</v>
-      </c>
-      <c r="AB2">
-        <v>0.76080000000000003</v>
-      </c>
-      <c r="AC2">
-        <v>0.77444999999999997</v>
-      </c>
-      <c r="AD2">
-        <v>0.71914999999999996</v>
-      </c>
-      <c r="AE2">
-        <v>0.74109999999999998</v>
-      </c>
       <c r="AF2">
-        <v>0.76870000000000005</v>
+        <v>0.77990000000000004</v>
       </c>
       <c r="AG2">
-        <v>0.75800000000000001</v>
+        <v>0.78149999999999997</v>
       </c>
       <c r="AH2">
-        <v>0.78169999999999995</v>
+        <v>0.76670000000000005</v>
       </c>
       <c r="AI2">
-        <v>0.77939999999999998</v>
+        <v>0.76119999999999999</v>
       </c>
       <c r="AJ2">
-        <v>0.75785000000000002</v>
+        <v>0.75814999999999999</v>
       </c>
       <c r="AK2">
-        <v>0.74734999999999996</v>
+        <v>0.74709999999999999</v>
       </c>
       <c r="AL2">
-        <v>0.74180000000000001</v>
+        <v>0.75070000000000003</v>
       </c>
       <c r="AM2">
-        <v>0.78195000000000003</v>
+        <v>0.78659999999999997</v>
       </c>
       <c r="AN2">
-        <v>0.76615</v>
+        <v>0.78864999999999996</v>
       </c>
       <c r="AO2">
-        <v>0.79079999999999995</v>
+        <v>0.79135</v>
       </c>
       <c r="AP2">
-        <v>0.76624999999999999</v>
+        <v>0.77544999999999997</v>
       </c>
       <c r="AQ2">
-        <v>0.78454999999999997</v>
+        <v>0.77129999999999999</v>
       </c>
       <c r="AR2">
-        <v>0.79135</v>
+        <v>0.76305000000000001</v>
       </c>
       <c r="AS2">
-        <v>0.80805000000000005</v>
+        <v>0.78944999999999999</v>
       </c>
       <c r="AT2">
-        <v>0.76515</v>
+        <v>0.753</v>
       </c>
       <c r="AU2">
-        <v>0.77875000000000005</v>
+        <v>0.7923</v>
       </c>
       <c r="AV2">
-        <v>0.77315</v>
+        <v>0.80305000000000004</v>
       </c>
       <c r="AW2">
-        <v>0.77649999999999997</v>
+        <v>0.75914999999999999</v>
       </c>
       <c r="AX2">
-        <v>0.75885000000000002</v>
+        <v>0.77895000000000003</v>
       </c>
     </row>
     <row r="3" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>0.76134999999999997</v>
+        <v>0.73065000000000002</v>
       </c>
       <c r="B3">
-        <v>0.74634999999999996</v>
+        <v>0.73324999999999996</v>
       </c>
       <c r="C3">
-        <v>0.74395</v>
+        <v>0.74285000000000001</v>
       </c>
       <c r="D3">
-        <v>0.73914999999999997</v>
+        <v>0.74765000000000004</v>
       </c>
       <c r="E3">
-        <v>0.76315</v>
+        <v>0.7399</v>
       </c>
       <c r="F3">
-        <v>0.70925000000000005</v>
+        <v>0.73224999999999996</v>
       </c>
       <c r="G3">
-        <v>0.73580000000000001</v>
+        <v>0.75449999999999995</v>
       </c>
       <c r="H3">
-        <v>0.76680000000000004</v>
+        <v>0.77054999999999996</v>
       </c>
       <c r="I3">
-        <v>0.75170000000000003</v>
+        <v>0.74124999999999996</v>
       </c>
       <c r="J3">
-        <v>0.77154999999999996</v>
+        <v>0.74970000000000003</v>
       </c>
       <c r="K3">
-        <v>0.76024999999999998</v>
+        <v>0.76590000000000003</v>
       </c>
       <c r="L3">
-        <v>0.76029999999999998</v>
+        <v>0.74524999999999997</v>
       </c>
       <c r="M3">
-        <v>0.76405000000000001</v>
+        <v>0.72355000000000003</v>
       </c>
       <c r="N3">
-        <v>0.72570000000000001</v>
+        <v>0.748</v>
       </c>
       <c r="O3">
-        <v>0.79790000000000005</v>
+        <v>0.76180000000000003</v>
       </c>
       <c r="P3">
-        <v>0.75055000000000005</v>
+        <v>0.76765000000000005</v>
       </c>
       <c r="Q3">
-        <v>0.73875000000000002</v>
+        <v>0.75229999999999997</v>
       </c>
       <c r="R3">
-        <v>0.76354999999999995</v>
+        <v>0.7591</v>
       </c>
       <c r="S3">
-        <v>0.75695000000000001</v>
+        <v>0.73185</v>
       </c>
       <c r="T3">
-        <v>0.74734999999999996</v>
+        <v>0.73934999999999995</v>
       </c>
       <c r="U3">
-        <v>0.76180000000000003</v>
+        <v>0.76975000000000005</v>
       </c>
       <c r="V3">
-        <v>0.74890000000000001</v>
+        <v>0.75309999999999999</v>
       </c>
       <c r="W3">
-        <v>0.75205</v>
+        <v>0.76865000000000006</v>
       </c>
       <c r="X3">
-        <v>0.75624999999999998</v>
+        <v>0.74775000000000003</v>
       </c>
       <c r="Y3">
-        <v>0.74829999999999997</v>
+        <v>0.74439999999999995</v>
       </c>
       <c r="Z3">
-        <v>0.76880000000000004</v>
+        <v>0.75429999999999997</v>
       </c>
       <c r="AA3">
-        <v>0.73499999999999999</v>
+        <v>0.73234999999999995</v>
       </c>
       <c r="AB3">
-        <v>0.72794999999999999</v>
+        <v>0.77185000000000004</v>
       </c>
       <c r="AC3">
-        <v>0.73799999999999999</v>
+        <v>0.75424999999999998</v>
       </c>
       <c r="AD3">
-        <v>0.69499999999999995</v>
+        <v>0.75080000000000002</v>
       </c>
       <c r="AE3">
-        <v>0.73699999999999999</v>
+        <v>0.72994999999999999</v>
       </c>
       <c r="AF3">
-        <v>0.74329999999999996</v>
+        <v>0.74270000000000003</v>
       </c>
       <c r="AG3">
-        <v>0.73040000000000005</v>
+        <v>0.77364999999999995</v>
       </c>
       <c r="AH3">
-        <v>0.77049999999999996</v>
+        <v>0.75524999999999998</v>
       </c>
       <c r="AI3">
-        <v>0.76129999999999998</v>
+        <v>0.75295000000000001</v>
       </c>
       <c r="AJ3">
-        <v>0.76305000000000001</v>
+        <v>0.73885000000000001</v>
       </c>
       <c r="AK3">
-        <v>0.74480000000000002</v>
+        <v>0.73099999999999998</v>
       </c>
       <c r="AL3">
-        <v>0.74255000000000004</v>
+        <v>0.73619999999999997</v>
       </c>
       <c r="AM3">
-        <v>0.78520000000000001</v>
+        <v>0.77364999999999995</v>
       </c>
       <c r="AN3">
-        <v>0.74234999999999995</v>
+        <v>0.77044999999999997</v>
       </c>
       <c r="AO3">
-        <v>0.74844999999999995</v>
+        <v>0.76685000000000003</v>
       </c>
       <c r="AP3">
-        <v>0.73465000000000003</v>
+        <v>0.75555000000000005</v>
       </c>
       <c r="AQ3">
-        <v>0.75614999999999999</v>
+        <v>0.77129999999999999</v>
       </c>
       <c r="AR3">
-        <v>0.7671</v>
+        <v>0.72704999999999997</v>
       </c>
       <c r="AS3">
-        <v>0.78444999999999998</v>
+        <v>0.74765000000000004</v>
       </c>
       <c r="AT3">
-        <v>0.74960000000000004</v>
+        <v>0.72560000000000002</v>
       </c>
       <c r="AU3">
-        <v>0.755</v>
+        <v>0.75814999999999999</v>
       </c>
       <c r="AV3">
-        <v>0.77124999999999999</v>
+        <v>0.7843</v>
       </c>
       <c r="AW3">
-        <v>0.76024999999999998</v>
+        <v>0.72899999999999998</v>
       </c>
       <c r="AX3">
-        <v>0.71955000000000002</v>
+        <v>0.75634999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>0.73970000000000002</v>
+        <v>0.69169999999999998</v>
       </c>
       <c r="B4">
-        <v>0.70965</v>
+        <v>0.71204999999999996</v>
       </c>
       <c r="C4">
-        <v>0.72714999999999996</v>
+        <v>0.69089999999999996</v>
       </c>
       <c r="D4">
-        <v>0.70525000000000004</v>
+        <v>0.72075</v>
       </c>
       <c r="E4">
-        <v>0.73860000000000003</v>
+        <v>0.71525000000000005</v>
       </c>
       <c r="F4">
-        <v>0.69725000000000004</v>
+        <v>0.71679999999999999</v>
       </c>
       <c r="G4">
-        <v>0.71345000000000003</v>
+        <v>0.71055000000000001</v>
       </c>
       <c r="H4">
-        <v>0.73750000000000004</v>
+        <v>0.74829999999999997</v>
       </c>
       <c r="I4">
-        <v>0.72729999999999995</v>
+        <v>0.70935000000000004</v>
       </c>
       <c r="J4">
-        <v>0.76065000000000005</v>
+        <v>0.73360000000000003</v>
       </c>
       <c r="K4">
-        <v>0.72814999999999996</v>
+        <v>0.74965000000000004</v>
       </c>
       <c r="L4">
-        <v>0.71530000000000005</v>
+        <v>0.73050000000000004</v>
       </c>
       <c r="M4">
-        <v>0.74614999999999998</v>
+        <v>0.70694999999999997</v>
       </c>
       <c r="N4">
-        <v>0.71235000000000004</v>
+        <v>0.71814999999999996</v>
       </c>
       <c r="O4">
-        <v>0.76844999999999997</v>
+        <v>0.74965000000000004</v>
       </c>
       <c r="P4">
-        <v>0.72094999999999998</v>
+        <v>0.74560000000000004</v>
       </c>
       <c r="Q4">
-        <v>0.73134999999999994</v>
+        <v>0.71299999999999997</v>
       </c>
       <c r="R4">
-        <v>0.71304999999999996</v>
+        <v>0.75624999999999998</v>
       </c>
       <c r="S4">
-        <v>0.75614999999999999</v>
+        <v>0.68874999999999997</v>
       </c>
       <c r="T4">
-        <v>0.73009999999999997</v>
+        <v>0.71140000000000003</v>
       </c>
       <c r="U4">
-        <v>0.74014999999999997</v>
+        <v>0.74729999999999996</v>
       </c>
       <c r="V4">
-        <v>0.72799999999999998</v>
+        <v>0.72645000000000004</v>
       </c>
       <c r="W4">
-        <v>0.71184999999999998</v>
+        <v>0.74950000000000006</v>
       </c>
       <c r="X4">
-        <v>0.73194999999999999</v>
+        <v>0.72140000000000004</v>
       </c>
       <c r="Y4">
-        <v>0.71040000000000003</v>
+        <v>0.71240000000000003</v>
       </c>
       <c r="Z4">
-        <v>0.73575000000000002</v>
+        <v>0.72760000000000002</v>
       </c>
       <c r="AA4">
-        <v>0.71960000000000002</v>
+        <v>0.70804999999999996</v>
       </c>
       <c r="AB4">
-        <v>0.71394999999999997</v>
+        <v>0.75619999999999998</v>
       </c>
       <c r="AC4">
-        <v>0.71650000000000003</v>
+        <v>0.74914999999999998</v>
       </c>
       <c r="AD4">
-        <v>0.68394999999999995</v>
+        <v>0.72355000000000003</v>
       </c>
       <c r="AE4">
-        <v>0.71304999999999996</v>
+        <v>0.70740000000000003</v>
       </c>
       <c r="AF4">
-        <v>0.72160000000000002</v>
+        <v>0.70804999999999996</v>
       </c>
       <c r="AG4">
-        <v>0.71625000000000005</v>
+        <v>0.71009999999999995</v>
       </c>
       <c r="AH4">
-        <v>0.75990000000000002</v>
+        <v>0.73640000000000005</v>
       </c>
       <c r="AI4">
-        <v>0.71499999999999997</v>
+        <v>0.72889999999999999</v>
       </c>
       <c r="AJ4">
-        <v>0.74919999999999998</v>
+        <v>0.71020000000000005</v>
       </c>
       <c r="AK4">
-        <v>0.70174999999999998</v>
+        <v>0.71514999999999995</v>
       </c>
       <c r="AL4">
-        <v>0.72245000000000004</v>
+        <v>0.71135000000000004</v>
       </c>
       <c r="AM4">
-        <v>0.7601</v>
+        <v>0.76034999999999997</v>
       </c>
       <c r="AN4">
-        <v>0.72509999999999997</v>
+        <v>0.72504999999999997</v>
       </c>
       <c r="AO4">
-        <v>0.73995</v>
+        <v>0.73445000000000005</v>
       </c>
       <c r="AP4">
-        <v>0.71519999999999995</v>
+        <v>0.71589999999999998</v>
       </c>
       <c r="AQ4">
-        <v>0.72865000000000002</v>
+        <v>0.74709999999999999</v>
       </c>
       <c r="AR4">
-        <v>0.71984999999999999</v>
+        <v>0.68979999999999997</v>
       </c>
       <c r="AS4">
-        <v>0.72965000000000002</v>
+        <v>0.7147</v>
       </c>
       <c r="AT4">
-        <v>0.70874999999999999</v>
+        <v>0.69374999999999998</v>
       </c>
       <c r="AU4">
-        <v>0.73645000000000005</v>
+        <v>0.73685</v>
       </c>
       <c r="AV4">
-        <v>0.73434999999999995</v>
+        <v>0.73694999999999999</v>
       </c>
       <c r="AW4">
-        <v>0.72089999999999999</v>
+        <v>0.70055000000000001</v>
       </c>
       <c r="AX4">
-        <v>0.71775</v>
+        <v>0.71189999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A5">
+        <v>0.66339999999999999</v>
+      </c>
+      <c r="B5">
+        <v>0.67969999999999997</v>
+      </c>
+      <c r="C5">
+        <v>0.6623</v>
+      </c>
+      <c r="D5">
+        <v>0.69394999999999996</v>
+      </c>
+      <c r="E5">
+        <v>0.69545000000000001</v>
+      </c>
+      <c r="F5">
+        <v>0.69694999999999996</v>
+      </c>
+      <c r="G5">
+        <v>0.68464999999999998</v>
+      </c>
+      <c r="H5">
+        <v>0.72009999999999996</v>
+      </c>
+      <c r="I5">
+        <v>0.67825000000000002</v>
+      </c>
+      <c r="J5">
+        <v>0.70279999999999998</v>
+      </c>
+      <c r="K5">
+        <v>0.70015000000000005</v>
+      </c>
+      <c r="L5">
+        <v>0.69494999999999996</v>
+      </c>
+      <c r="M5">
+        <v>0.67610000000000003</v>
+      </c>
+      <c r="N5">
+        <v>0.68379999999999996</v>
+      </c>
+      <c r="O5">
+        <v>0.69794999999999996</v>
+      </c>
+      <c r="P5">
+        <v>0.71179999999999999</v>
+      </c>
+      <c r="Q5">
+        <v>0.70325000000000004</v>
+      </c>
+      <c r="R5">
+        <v>0.72430000000000005</v>
+      </c>
+      <c r="S5">
+        <v>0.67164999999999997</v>
+      </c>
+      <c r="T5">
+        <v>0.68500000000000005</v>
+      </c>
+      <c r="U5">
+        <v>0.72604999999999997</v>
+      </c>
+      <c r="V5">
+        <v>0.69684999999999997</v>
+      </c>
+      <c r="W5">
+        <v>0.72745000000000004</v>
+      </c>
+      <c r="X5">
+        <v>0.70115000000000005</v>
+      </c>
+      <c r="Y5">
+        <v>0.67859999999999998</v>
+      </c>
+      <c r="Z5">
+        <v>0.68540000000000001</v>
+      </c>
+      <c r="AA5">
+        <v>0.69894999999999996</v>
+      </c>
+      <c r="AB5">
+        <v>0.73470000000000002</v>
+      </c>
+      <c r="AC5">
+        <v>0.71165</v>
+      </c>
+      <c r="AD5">
+        <v>0.67615000000000003</v>
+      </c>
+      <c r="AE5">
+        <v>0.69515000000000005</v>
+      </c>
+      <c r="AF5">
+        <v>0.65269999999999995</v>
+      </c>
+      <c r="AG5">
+        <v>0.66859999999999997</v>
+      </c>
+      <c r="AH5">
+        <v>0.68915000000000004</v>
+      </c>
+      <c r="AI5">
+        <v>0.69474999999999998</v>
+      </c>
+      <c r="AJ5">
+        <v>0.68494999999999995</v>
+      </c>
+      <c r="AK5">
+        <v>0.69755</v>
+      </c>
+      <c r="AL5">
+        <v>0.72555000000000003</v>
+      </c>
+      <c r="AM5">
         <v>0.73055000000000003</v>
       </c>
-      <c r="B5">
-        <v>0.65854999999999997</v>
-      </c>
-      <c r="C5">
-        <v>0.69435000000000002</v>
-      </c>
-      <c r="D5">
-        <v>0.70125000000000004</v>
-      </c>
-      <c r="E5">
-        <v>0.72975000000000001</v>
-      </c>
-      <c r="F5">
-        <v>0.67310000000000003</v>
-      </c>
-      <c r="G5">
-        <v>0.66990000000000005</v>
-      </c>
-      <c r="H5">
-        <v>0.70499999999999996</v>
-      </c>
-      <c r="I5">
-        <v>0.70330000000000004</v>
-      </c>
-      <c r="J5">
-        <v>0.71984999999999999</v>
-      </c>
-      <c r="K5">
-        <v>0.69510000000000005</v>
-      </c>
-      <c r="L5">
-        <v>0.69655</v>
-      </c>
-      <c r="M5">
-        <v>0.69984999999999997</v>
-      </c>
-      <c r="N5">
-        <v>0.68025000000000002</v>
-      </c>
-      <c r="O5">
-        <v>0.73250000000000004</v>
-      </c>
-      <c r="P5">
-        <v>0.70350000000000001</v>
-      </c>
-      <c r="Q5">
-        <v>0.70840000000000003</v>
-      </c>
-      <c r="R5">
-        <v>0.69345000000000001</v>
-      </c>
-      <c r="S5">
-        <v>0.71970000000000001</v>
-      </c>
-      <c r="T5">
-        <v>0.68025000000000002</v>
-      </c>
-      <c r="U5">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="V5">
-        <v>0.67284999999999995</v>
-      </c>
-      <c r="W5">
-        <v>0.69259999999999999</v>
-      </c>
-      <c r="X5">
-        <v>0.70789999999999997</v>
-      </c>
-      <c r="Y5">
-        <v>0.67949999999999999</v>
-      </c>
-      <c r="Z5">
-        <v>0.69450000000000001</v>
-      </c>
-      <c r="AA5">
-        <v>0.67889999999999995</v>
-      </c>
-      <c r="AB5">
-        <v>0.68640000000000001</v>
-      </c>
-      <c r="AC5">
-        <v>0.67695000000000005</v>
-      </c>
-      <c r="AD5">
-        <v>0.66425000000000001</v>
-      </c>
-      <c r="AE5">
-        <v>0.68245</v>
-      </c>
-      <c r="AF5">
-        <v>0.68479999999999996</v>
-      </c>
-      <c r="AG5">
-        <v>0.69450000000000001</v>
-      </c>
-      <c r="AH5">
-        <v>0.73514999999999997</v>
-      </c>
-      <c r="AI5">
-        <v>0.69764999999999999</v>
-      </c>
-      <c r="AJ5">
-        <v>0.68425000000000002</v>
-      </c>
-      <c r="AK5">
-        <v>0.70109999999999995</v>
-      </c>
-      <c r="AL5">
-        <v>0.69669999999999999</v>
-      </c>
-      <c r="AM5">
-        <v>0.71679999999999999</v>
-      </c>
       <c r="AN5">
-        <v>0.70609999999999995</v>
+        <v>0.68915000000000004</v>
       </c>
       <c r="AO5">
-        <v>0.71535000000000004</v>
+        <v>0.69730000000000003</v>
       </c>
       <c r="AP5">
-        <v>0.69404999999999994</v>
+        <v>0.69940000000000002</v>
       </c>
       <c r="AQ5">
-        <v>0.71530000000000005</v>
+        <v>0.70865</v>
       </c>
       <c r="AR5">
-        <v>0.72314999999999996</v>
+        <v>0.69094999999999995</v>
       </c>
       <c r="AS5">
-        <v>0.70804999999999996</v>
+        <v>0.70120000000000005</v>
       </c>
       <c r="AT5">
-        <v>0.68510000000000004</v>
+        <v>0.67584999999999995</v>
       </c>
       <c r="AU5">
-        <v>0.71894999999999998</v>
+        <v>0.71204999999999996</v>
       </c>
       <c r="AV5">
-        <v>0.71784999999999999</v>
+        <v>0.73660000000000003</v>
       </c>
       <c r="AW5">
-        <v>0.68799999999999994</v>
+        <v>0.68730000000000002</v>
       </c>
       <c r="AX5">
-        <v>0.68620000000000003</v>
+        <v>0.70045000000000002</v>
       </c>
     </row>
     <row r="6" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>0.68994999999999995</v>
+        <v>0.63424999999999998</v>
       </c>
       <c r="B6">
-        <v>0.67420000000000002</v>
+        <v>0.63829999999999998</v>
       </c>
       <c r="C6">
-        <v>0.68525000000000003</v>
+        <v>0.63449999999999995</v>
       </c>
       <c r="D6">
-        <v>0.66964999999999997</v>
+        <v>0.66779999999999995</v>
       </c>
       <c r="E6">
-        <v>0.70955000000000001</v>
+        <v>0.64924999999999999</v>
       </c>
       <c r="F6">
-        <v>0.68184999999999996</v>
+        <v>0.68635000000000002</v>
       </c>
       <c r="G6">
-        <v>0.63839999999999997</v>
+        <v>0.65580000000000005</v>
       </c>
       <c r="H6">
-        <v>0.68920000000000003</v>
+        <v>0.68825000000000003</v>
       </c>
       <c r="I6">
-        <v>0.65859999999999996</v>
+        <v>0.65985000000000005</v>
       </c>
       <c r="J6">
-        <v>0.69055</v>
+        <v>0.66159999999999997</v>
       </c>
       <c r="K6">
-        <v>0.68095000000000006</v>
+        <v>0.69030000000000002</v>
       </c>
       <c r="L6">
-        <v>0.67425000000000002</v>
+        <v>0.67520000000000002</v>
       </c>
       <c r="M6">
-        <v>0.68069999999999997</v>
+        <v>0.6714</v>
       </c>
       <c r="N6">
-        <v>0.67305000000000004</v>
+        <v>0.67264999999999997</v>
       </c>
       <c r="O6">
-        <v>0.70735000000000003</v>
+        <v>0.68964999999999999</v>
       </c>
       <c r="P6">
-        <v>0.68425000000000002</v>
+        <v>0.68410000000000004</v>
       </c>
       <c r="Q6">
-        <v>0.68149999999999999</v>
+        <v>0.69069999999999998</v>
       </c>
       <c r="R6">
-        <v>0.66749999999999998</v>
+        <v>0.67635000000000001</v>
       </c>
       <c r="S6">
-        <v>0.70760000000000001</v>
+        <v>0.63790000000000002</v>
       </c>
       <c r="T6">
-        <v>0.67284999999999995</v>
+        <v>0.64219999999999999</v>
       </c>
       <c r="U6">
-        <v>0.69415000000000004</v>
+        <v>0.70025000000000004</v>
       </c>
       <c r="V6">
-        <v>0.66120000000000001</v>
+        <v>0.67184999999999995</v>
       </c>
       <c r="W6">
-        <v>0.64944999999999997</v>
+        <v>0.69184999999999997</v>
       </c>
       <c r="X6">
-        <v>0.65369999999999995</v>
+        <v>0.64605000000000001</v>
       </c>
       <c r="Y6">
-        <v>0.64190000000000003</v>
+        <v>0.64764999999999995</v>
       </c>
       <c r="Z6">
-        <v>0.66505000000000003</v>
+        <v>0.6734</v>
       </c>
       <c r="AA6">
-        <v>0.65925</v>
+        <v>0.67689999999999995</v>
       </c>
       <c r="AB6">
-        <v>0.67630000000000001</v>
+        <v>0.66335</v>
       </c>
       <c r="AC6">
-        <v>0.64370000000000005</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="AD6">
-        <v>0.65325</v>
+        <v>0.64644999999999997</v>
       </c>
       <c r="AE6">
-        <v>0.64670000000000005</v>
+        <v>0.68745000000000001</v>
       </c>
       <c r="AF6">
-        <v>0.65505000000000002</v>
+        <v>0.62544999999999995</v>
       </c>
       <c r="AG6">
-        <v>0.67810000000000004</v>
+        <v>0.67144999999999999</v>
       </c>
       <c r="AH6">
-        <v>0.71199999999999997</v>
+        <v>0.6794</v>
       </c>
       <c r="AI6">
-        <v>0.65990000000000004</v>
+        <v>0.65429999999999999</v>
       </c>
       <c r="AJ6">
-        <v>0.66864999999999997</v>
+        <v>0.65510000000000002</v>
       </c>
       <c r="AK6">
-        <v>0.6724</v>
+        <v>0.68984999999999996</v>
       </c>
       <c r="AL6">
-        <v>0.65854999999999997</v>
+        <v>0.68794999999999995</v>
       </c>
       <c r="AM6">
-        <v>0.70155000000000001</v>
+        <v>0.68740000000000001</v>
       </c>
       <c r="AN6">
-        <v>0.67135</v>
+        <v>0.64054999999999995</v>
       </c>
       <c r="AO6">
-        <v>0.67589999999999995</v>
+        <v>0.65720000000000001</v>
       </c>
       <c r="AP6">
-        <v>0.66100000000000003</v>
+        <v>0.66485000000000005</v>
       </c>
       <c r="AQ6">
-        <v>0.67354999999999998</v>
+        <v>0.66695000000000004</v>
       </c>
       <c r="AR6">
-        <v>0.68064999999999998</v>
+        <v>0.6573</v>
       </c>
       <c r="AS6">
-        <v>0.64580000000000004</v>
+        <v>0.67225000000000001</v>
       </c>
       <c r="AT6">
-        <v>0.65559999999999996</v>
+        <v>0.63539999999999996</v>
       </c>
       <c r="AU6">
-        <v>0.66364999999999996</v>
+        <v>0.67330000000000001</v>
       </c>
       <c r="AV6">
-        <v>0.70204999999999995</v>
+        <v>0.6966</v>
       </c>
       <c r="AW6">
-        <v>0.6673</v>
+        <v>0.65239999999999998</v>
       </c>
       <c r="AX6">
-        <v>0.68089999999999995</v>
+        <v>0.67945</v>
       </c>
     </row>
     <row r="7" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>0.67244999999999999</v>
+        <v>0.60914999999999997</v>
       </c>
       <c r="B7">
-        <v>0.62075000000000002</v>
+        <v>0.62870000000000004</v>
       </c>
       <c r="C7">
-        <v>0.65705000000000002</v>
+        <v>0.60985</v>
       </c>
       <c r="D7">
-        <v>0.64990000000000003</v>
+        <v>0.65269999999999995</v>
       </c>
       <c r="E7">
-        <v>0.68330000000000002</v>
+        <v>0.60170000000000001</v>
       </c>
       <c r="F7">
-        <v>0.66269999999999996</v>
+        <v>0.67659999999999998</v>
       </c>
       <c r="G7">
-        <v>0.62775000000000003</v>
+        <v>0.62</v>
       </c>
       <c r="H7">
-        <v>0.63780000000000003</v>
+        <v>0.69284999999999997</v>
       </c>
       <c r="I7">
-        <v>0.63854999999999995</v>
+        <v>0.63590000000000002</v>
       </c>
       <c r="J7">
-        <v>0.66474999999999995</v>
+        <v>0.62760000000000005</v>
       </c>
       <c r="K7">
-        <v>0.64490000000000003</v>
+        <v>0.64859999999999995</v>
       </c>
       <c r="L7">
-        <v>0.64380000000000004</v>
+        <v>0.66725000000000001</v>
       </c>
       <c r="M7">
-        <v>0.66525000000000001</v>
+        <v>0.63100000000000001</v>
       </c>
       <c r="N7">
-        <v>0.66295000000000004</v>
+        <v>0.64644999999999997</v>
       </c>
       <c r="O7">
-        <v>0.68594999999999995</v>
+        <v>0.68635000000000002</v>
       </c>
       <c r="P7">
-        <v>0.66180000000000005</v>
+        <v>0.67005000000000003</v>
       </c>
       <c r="Q7">
-        <v>0.66169999999999995</v>
+        <v>0.66800000000000004</v>
       </c>
       <c r="R7">
-        <v>0.64875000000000005</v>
+        <v>0.63080000000000003</v>
       </c>
       <c r="S7">
-        <v>0.68564999999999998</v>
+        <v>0.63575000000000004</v>
       </c>
       <c r="T7">
-        <v>0.64710000000000001</v>
+        <v>0.62814999999999999</v>
       </c>
       <c r="U7">
-        <v>0.67574999999999996</v>
+        <v>0.6673</v>
       </c>
       <c r="V7">
-        <v>0.64534999999999998</v>
+        <v>0.64444999999999997</v>
       </c>
       <c r="W7">
-        <v>0.64005000000000001</v>
+        <v>0.67825000000000002</v>
       </c>
       <c r="X7">
+        <v>0.65085000000000004</v>
+      </c>
+      <c r="Y7">
+        <v>0.62224999999999997</v>
+      </c>
+      <c r="Z7">
+        <v>0.65075000000000005</v>
+      </c>
+      <c r="AA7">
+        <v>0.65329999999999999</v>
+      </c>
+      <c r="AB7">
+        <v>0.62319999999999998</v>
+      </c>
+      <c r="AC7">
+        <v>0.67400000000000004</v>
+      </c>
+      <c r="AD7">
+        <v>0.61080000000000001</v>
+      </c>
+      <c r="AE7">
+        <v>0.66005000000000003</v>
+      </c>
+      <c r="AF7">
+        <v>0.61294999999999999</v>
+      </c>
+      <c r="AG7">
+        <v>0.64495000000000002</v>
+      </c>
+      <c r="AH7">
+        <v>0.66010000000000002</v>
+      </c>
+      <c r="AI7">
+        <v>0.63680000000000003</v>
+      </c>
+      <c r="AJ7">
+        <v>0.64375000000000004</v>
+      </c>
+      <c r="AK7">
+        <v>0.68005000000000004</v>
+      </c>
+      <c r="AL7">
+        <v>0.65685000000000004</v>
+      </c>
+      <c r="AM7">
+        <v>0.67664999999999997</v>
+      </c>
+      <c r="AN7">
+        <v>0.60765000000000002</v>
+      </c>
+      <c r="AO7">
+        <v>0.64839999999999998</v>
+      </c>
+      <c r="AP7">
+        <v>0.63454999999999995</v>
+      </c>
+      <c r="AQ7">
         <v>0.64090000000000003</v>
       </c>
-      <c r="Y7">
-        <v>0.62619999999999998</v>
-      </c>
-      <c r="Z7">
-        <v>0.63939999999999997</v>
-      </c>
-      <c r="AA7">
-        <v>0.65010000000000001</v>
-      </c>
-      <c r="AB7">
-        <v>0.64964999999999995</v>
-      </c>
-      <c r="AC7">
-        <v>0.62014999999999998</v>
-      </c>
-      <c r="AD7">
-        <v>0.62219999999999998</v>
-      </c>
-      <c r="AE7">
-        <v>0.63195000000000001</v>
-      </c>
-      <c r="AF7">
-        <v>0.64285000000000003</v>
-      </c>
-      <c r="AG7">
-        <v>0.63065000000000004</v>
-      </c>
-      <c r="AH7">
-        <v>0.68310000000000004</v>
-      </c>
-      <c r="AI7">
-        <v>0.65075000000000005</v>
-      </c>
-      <c r="AJ7">
-        <v>0.64780000000000004</v>
-      </c>
-      <c r="AK7">
-        <v>0.63424999999999998</v>
-      </c>
-      <c r="AL7">
-        <v>0.64905000000000002</v>
-      </c>
-      <c r="AM7">
-        <v>0.65974999999999995</v>
-      </c>
-      <c r="AN7">
-        <v>0.63500000000000001</v>
-      </c>
-      <c r="AO7">
-        <v>0.63739999999999997</v>
-      </c>
-      <c r="AP7">
-        <v>0.63859999999999995</v>
-      </c>
-      <c r="AQ7">
-        <v>0.64710000000000001</v>
-      </c>
       <c r="AR7">
-        <v>0.67484999999999995</v>
+        <v>0.62544999999999995</v>
       </c>
       <c r="AS7">
-        <v>0.62144999999999995</v>
+        <v>0.65034999999999998</v>
       </c>
       <c r="AT7">
-        <v>0.66125</v>
+        <v>0.62834999999999996</v>
       </c>
       <c r="AU7">
-        <v>0.64205000000000001</v>
+        <v>0.63055000000000005</v>
       </c>
       <c r="AV7">
-        <v>0.69650000000000001</v>
+        <v>0.65</v>
       </c>
       <c r="AW7">
-        <v>0.65544999999999998</v>
+        <v>0.63139999999999996</v>
       </c>
       <c r="AX7">
-        <v>0.65405000000000002</v>
+        <v>0.64810000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>0.6673</v>
+        <v>0.60560000000000003</v>
       </c>
       <c r="B8">
-        <v>0.60585</v>
+        <v>0.61314999999999997</v>
       </c>
       <c r="C8">
-        <v>0.66420000000000001</v>
+        <v>0.58914999999999995</v>
       </c>
       <c r="D8">
-        <v>0.63429999999999997</v>
+        <v>0.64354999999999996</v>
       </c>
       <c r="E8">
-        <v>0.64749999999999996</v>
+        <v>0.59065000000000001</v>
       </c>
       <c r="F8">
-        <v>0.61280000000000001</v>
+        <v>0.65144999999999997</v>
       </c>
       <c r="G8">
-        <v>0.61385000000000001</v>
+        <v>0.61765000000000003</v>
       </c>
       <c r="H8">
-        <v>0.61209999999999998</v>
+        <v>0.66605000000000003</v>
       </c>
       <c r="I8">
-        <v>0.62770000000000004</v>
+        <v>0.62504999999999999</v>
       </c>
       <c r="J8">
-        <v>0.64339999999999997</v>
+        <v>0.61775000000000002</v>
       </c>
       <c r="K8">
-        <v>0.62539999999999996</v>
+        <v>0.63844999999999996</v>
       </c>
       <c r="L8">
-        <v>0.62909999999999999</v>
+        <v>0.64864999999999995</v>
       </c>
       <c r="M8">
-        <v>0.63560000000000005</v>
+        <v>0.61909999999999998</v>
       </c>
       <c r="N8">
-        <v>0.66620000000000001</v>
+        <v>0.64529999999999998</v>
       </c>
       <c r="O8">
-        <v>0.64495000000000002</v>
+        <v>0.64024999999999999</v>
       </c>
       <c r="P8">
-        <v>0.64475000000000005</v>
+        <v>0.63424999999999998</v>
       </c>
       <c r="Q8">
-        <v>0.63819999999999999</v>
+        <v>0.65154999999999996</v>
       </c>
       <c r="R8">
-        <v>0.64370000000000005</v>
+        <v>0.62280000000000002</v>
       </c>
       <c r="S8">
-        <v>0.66134999999999999</v>
+        <v>0.62675000000000003</v>
       </c>
       <c r="T8">
-        <v>0.62339999999999995</v>
+        <v>0.64219999999999999</v>
       </c>
       <c r="U8">
-        <v>0.64280000000000004</v>
+        <v>0.64670000000000005</v>
       </c>
       <c r="V8">
-        <v>0.63349999999999995</v>
+        <v>0.62795000000000001</v>
       </c>
       <c r="W8">
-        <v>0.60535000000000005</v>
+        <v>0.66774999999999995</v>
       </c>
       <c r="X8">
-        <v>0.63044999999999995</v>
+        <v>0.64070000000000005</v>
       </c>
       <c r="Y8">
-        <v>0.61995</v>
+        <v>0.60594999999999999</v>
       </c>
       <c r="Z8">
-        <v>0.63090000000000002</v>
+        <v>0.62029999999999996</v>
       </c>
       <c r="AA8">
-        <v>0.62570000000000003</v>
+        <v>0.63014999999999999</v>
       </c>
       <c r="AB8">
-        <v>0.65654999999999997</v>
+        <v>0.61419999999999997</v>
       </c>
       <c r="AC8">
-        <v>0.64605000000000001</v>
+        <v>0.65485000000000004</v>
       </c>
       <c r="AD8">
-        <v>0.61704999999999999</v>
+        <v>0.58745000000000003</v>
       </c>
       <c r="AE8">
-        <v>0.62050000000000005</v>
+        <v>0.65110000000000001</v>
       </c>
       <c r="AF8">
-        <v>0.61599999999999999</v>
+        <v>0.58474999999999999</v>
       </c>
       <c r="AG8">
-        <v>0.61199999999999999</v>
+        <v>0.61255000000000004</v>
       </c>
       <c r="AH8">
-        <v>0.65144999999999997</v>
+        <v>0.64585000000000004</v>
       </c>
       <c r="AI8">
-        <v>0.65769999999999995</v>
+        <v>0.65200000000000002</v>
       </c>
       <c r="AJ8">
-        <v>0.63400000000000001</v>
+        <v>0.61129999999999995</v>
       </c>
       <c r="AK8">
-        <v>0.63734999999999997</v>
+        <v>0.65790000000000004</v>
       </c>
       <c r="AL8">
-        <v>0.63690000000000002</v>
+        <v>0.62350000000000005</v>
       </c>
       <c r="AM8">
-        <v>0.64834999999999998</v>
+        <v>0.64910000000000001</v>
       </c>
       <c r="AN8">
-        <v>0.62355000000000005</v>
+        <v>0.60165000000000002</v>
       </c>
       <c r="AO8">
-        <v>0.6159</v>
+        <v>0.64805000000000001</v>
       </c>
       <c r="AP8">
-        <v>0.61560000000000004</v>
+        <v>0.62805</v>
       </c>
       <c r="AQ8">
-        <v>0.65674999999999994</v>
+        <v>0.63880000000000003</v>
       </c>
       <c r="AR8">
-        <v>0.64770000000000005</v>
+        <v>0.61799999999999999</v>
       </c>
       <c r="AS8">
-        <v>0.62044999999999995</v>
+        <v>0.63500000000000001</v>
       </c>
       <c r="AT8">
-        <v>0.64829999999999999</v>
+        <v>0.62495000000000001</v>
       </c>
       <c r="AU8">
-        <v>0.61834999999999996</v>
+        <v>0.60194999999999999</v>
       </c>
       <c r="AV8">
-        <v>0.67635000000000001</v>
+        <v>0.61434999999999995</v>
       </c>
       <c r="AW8">
-        <v>0.62290000000000001</v>
+        <v>0.61734999999999995</v>
       </c>
       <c r="AX8">
-        <v>0.64739999999999998</v>
+        <v>0.64075000000000004</v>
       </c>
     </row>
     <row r="9" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>0.65695000000000003</v>
+        <v>0.60845000000000005</v>
       </c>
       <c r="B9">
-        <v>0.59475</v>
+        <v>0.60194999999999999</v>
       </c>
       <c r="C9">
-        <v>0.64144999999999996</v>
+        <v>0.58309999999999995</v>
       </c>
       <c r="D9">
-        <v>0.58665</v>
+        <v>0.63070000000000004</v>
       </c>
       <c r="E9">
-        <v>0.61524999999999996</v>
+        <v>0.58065</v>
       </c>
       <c r="F9">
-        <v>0.61119999999999997</v>
+        <v>0.62280000000000002</v>
       </c>
       <c r="G9">
-        <v>0.59740000000000004</v>
+        <v>0.61024999999999996</v>
       </c>
       <c r="H9">
-        <v>0.61545000000000005</v>
+        <v>0.63729999999999998</v>
       </c>
       <c r="I9">
-        <v>0.61355000000000004</v>
+        <v>0.59025000000000005</v>
       </c>
       <c r="J9">
-        <v>0.64900000000000002</v>
+        <v>0.61924999999999997</v>
       </c>
       <c r="K9">
-        <v>0.59850000000000003</v>
+        <v>0.63144999999999996</v>
       </c>
       <c r="L9">
-        <v>0.61524999999999996</v>
+        <v>0.63229999999999997</v>
       </c>
       <c r="M9">
-        <v>0.61214999999999997</v>
+        <v>0.60450000000000004</v>
       </c>
       <c r="N9">
-        <v>0.63529999999999998</v>
+        <v>0.63754999999999995</v>
       </c>
       <c r="O9">
-        <v>0.62849999999999995</v>
+        <v>0.64034999999999997</v>
       </c>
       <c r="P9">
-        <v>0.63514999999999999</v>
+        <v>0.63424999999999998</v>
       </c>
       <c r="Q9">
-        <v>0.63400000000000001</v>
+        <v>0.62265000000000004</v>
       </c>
       <c r="R9">
-        <v>0.62039999999999995</v>
+        <v>0.62155000000000005</v>
       </c>
       <c r="S9">
-        <v>0.6532</v>
+        <v>0.60370000000000001</v>
       </c>
       <c r="T9">
-        <v>0.624</v>
+        <v>0.62829999999999997</v>
       </c>
       <c r="U9">
-        <v>0.64080000000000004</v>
+        <v>0.62814999999999999</v>
       </c>
       <c r="V9">
-        <v>0.62424999999999997</v>
+        <v>0.60450000000000004</v>
       </c>
       <c r="W9">
-        <v>0.59984999999999999</v>
+        <v>0.66835</v>
       </c>
       <c r="X9">
-        <v>0.61675000000000002</v>
+        <v>0.61399999999999999</v>
       </c>
       <c r="Y9">
-        <v>0.59975000000000001</v>
+        <v>0.61385000000000001</v>
       </c>
       <c r="Z9">
-        <v>0.64634999999999998</v>
+        <v>0.61819999999999997</v>
       </c>
       <c r="AA9">
-        <v>0.63249999999999995</v>
+        <v>0.62385000000000002</v>
       </c>
       <c r="AB9">
-        <v>0.64849999999999997</v>
+        <v>0.59960000000000002</v>
       </c>
       <c r="AC9">
+        <v>0.64085000000000003</v>
+      </c>
+      <c r="AD9">
+        <v>0.56284999999999996</v>
+      </c>
+      <c r="AE9">
+        <v>0.63649999999999995</v>
+      </c>
+      <c r="AF9">
+        <v>0.58809999999999996</v>
+      </c>
+      <c r="AG9">
+        <v>0.61814999999999998</v>
+      </c>
+      <c r="AH9">
+        <v>0.62455000000000005</v>
+      </c>
+      <c r="AI9">
+        <v>0.63339999999999996</v>
+      </c>
+      <c r="AJ9">
+        <v>0.59589999999999999</v>
+      </c>
+      <c r="AK9">
+        <v>0.62590000000000001</v>
+      </c>
+      <c r="AL9">
+        <v>0.62614999999999998</v>
+      </c>
+      <c r="AM9">
+        <v>0.63500000000000001</v>
+      </c>
+      <c r="AN9">
+        <v>0.61080000000000001</v>
+      </c>
+      <c r="AO9">
+        <v>0.63195000000000001</v>
+      </c>
+      <c r="AP9">
+        <v>0.63744999999999996</v>
+      </c>
+      <c r="AQ9">
+        <v>0.6</v>
+      </c>
+      <c r="AR9">
+        <v>0.58784999999999998</v>
+      </c>
+      <c r="AS9">
+        <v>0.62875000000000003</v>
+      </c>
+      <c r="AT9">
+        <v>0.62124999999999997</v>
+      </c>
+      <c r="AU9">
+        <v>0.55025000000000002</v>
+      </c>
+      <c r="AV9">
+        <v>0.60914999999999997</v>
+      </c>
+      <c r="AW9">
         <v>0.62409999999999999</v>
       </c>
-      <c r="AD9">
-        <v>0.61739999999999995</v>
-      </c>
-      <c r="AE9">
-        <v>0.62234999999999996</v>
-      </c>
-      <c r="AF9">
-        <v>0.61875000000000002</v>
-      </c>
-      <c r="AG9">
-        <v>0.61555000000000004</v>
-      </c>
-      <c r="AH9">
-        <v>0.63019999999999998</v>
-      </c>
-      <c r="AI9">
-        <v>0.64524999999999999</v>
-      </c>
-      <c r="AJ9">
-        <v>0.61409999999999998</v>
-      </c>
-      <c r="AK9">
-        <v>0.62050000000000005</v>
-      </c>
-      <c r="AL9">
-        <v>0.62755000000000005</v>
-      </c>
-      <c r="AM9">
-        <v>0.65169999999999995</v>
-      </c>
-      <c r="AN9">
-        <v>0.62634999999999996</v>
-      </c>
-      <c r="AO9">
-        <v>0.59440000000000004</v>
-      </c>
-      <c r="AP9">
-        <v>0.6119</v>
-      </c>
-      <c r="AQ9">
-        <v>0.62270000000000003</v>
-      </c>
-      <c r="AR9">
-        <v>0.64529999999999998</v>
-      </c>
-      <c r="AS9">
-        <v>0.59235000000000004</v>
-      </c>
-      <c r="AT9">
-        <v>0.65629999999999999</v>
-      </c>
-      <c r="AU9">
-        <v>0.60140000000000005</v>
-      </c>
-      <c r="AV9">
-        <v>0.65010000000000001</v>
-      </c>
-      <c r="AW9">
-        <v>0.61209999999999998</v>
-      </c>
       <c r="AX9">
-        <v>0.63134999999999997</v>
+        <v>0.62065000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>0.65334999999999999</v>
+        <v>0.60135000000000005</v>
       </c>
       <c r="B10">
-        <v>0.58884999999999998</v>
+        <v>0.58725000000000005</v>
       </c>
       <c r="C10">
-        <v>0.61680000000000001</v>
+        <v>0.56699999999999995</v>
       </c>
       <c r="D10">
-        <v>0.58674999999999999</v>
+        <v>0.61939999999999995</v>
       </c>
       <c r="E10">
-        <v>0.61585000000000001</v>
+        <v>0.58194999999999997</v>
       </c>
       <c r="F10">
-        <v>0.60355000000000003</v>
+        <v>0.63280000000000003</v>
       </c>
       <c r="G10">
-        <v>0.59140000000000004</v>
+        <v>0.59684999999999999</v>
       </c>
       <c r="H10">
-        <v>0.60734999999999995</v>
+        <v>0.62614999999999998</v>
       </c>
       <c r="I10">
-        <v>0.62555000000000005</v>
+        <v>0.5806</v>
       </c>
       <c r="J10">
-        <v>0.64649999999999996</v>
+        <v>0.60770000000000002</v>
       </c>
       <c r="K10">
-        <v>0.58889999999999998</v>
+        <v>0.59955000000000003</v>
       </c>
       <c r="L10">
-        <v>0.6</v>
+        <v>0.62239999999999995</v>
       </c>
       <c r="M10">
-        <v>0.59875</v>
+        <v>0.60670000000000002</v>
       </c>
       <c r="N10">
-        <v>0.63834999999999997</v>
+        <v>0.62155000000000005</v>
       </c>
       <c r="O10">
-        <v>0.62095</v>
+        <v>0.64515</v>
       </c>
       <c r="P10">
-        <v>0.64610000000000001</v>
+        <v>0.62670000000000003</v>
       </c>
       <c r="Q10">
-        <v>0.62044999999999995</v>
+        <v>0.61880000000000002</v>
       </c>
       <c r="R10">
-        <v>0.59414999999999996</v>
+        <v>0.62280000000000002</v>
       </c>
       <c r="S10">
-        <v>0.65085000000000004</v>
+        <v>0.57694999999999996</v>
       </c>
       <c r="T10">
+        <v>0.60535000000000005</v>
+      </c>
+      <c r="U10">
+        <v>0.61070000000000002</v>
+      </c>
+      <c r="V10">
+        <v>0.58284999999999998</v>
+      </c>
+      <c r="W10">
+        <v>0.64810000000000001</v>
+      </c>
+      <c r="X10">
+        <v>0.59555000000000002</v>
+      </c>
+      <c r="Y10">
+        <v>0.57584999999999997</v>
+      </c>
+      <c r="Z10">
+        <v>0.61155000000000004</v>
+      </c>
+      <c r="AA10">
+        <v>0.61170000000000002</v>
+      </c>
+      <c r="AB10">
+        <v>0.57464999999999999</v>
+      </c>
+      <c r="AC10">
+        <v>0.60709999999999997</v>
+      </c>
+      <c r="AD10">
+        <v>0.54874999999999996</v>
+      </c>
+      <c r="AE10">
         <v>0.61939999999999995</v>
       </c>
-      <c r="U10">
-        <v>0.63219999999999998</v>
-      </c>
-      <c r="V10">
-        <v>0.61224999999999996</v>
-      </c>
-      <c r="W10">
-        <v>0.59025000000000005</v>
-      </c>
-      <c r="X10">
-        <v>0.59875</v>
-      </c>
-      <c r="Y10">
-        <v>0.60980000000000001</v>
-      </c>
-      <c r="Z10">
-        <v>0.62309999999999999</v>
-      </c>
-      <c r="AA10">
-        <v>0.61140000000000005</v>
-      </c>
-      <c r="AB10">
-        <v>0.64085000000000003</v>
-      </c>
-      <c r="AC10">
-        <v>0.63109999999999999</v>
-      </c>
-      <c r="AD10">
-        <v>0.59875</v>
-      </c>
-      <c r="AE10">
-        <v>0.62085000000000001</v>
-      </c>
       <c r="AF10">
-        <v>0.62390000000000001</v>
+        <v>0.57504999999999995</v>
       </c>
       <c r="AG10">
-        <v>0.60214999999999996</v>
+        <v>0.60929999999999995</v>
       </c>
       <c r="AH10">
-        <v>0.6139</v>
+        <v>0.60165000000000002</v>
       </c>
       <c r="AI10">
-        <v>0.63959999999999995</v>
+        <v>0.63329999999999997</v>
       </c>
       <c r="AJ10">
-        <v>0.60065000000000002</v>
+        <v>0.61319999999999997</v>
       </c>
       <c r="AK10">
-        <v>0.61009999999999998</v>
+        <v>0.64934999999999998</v>
       </c>
       <c r="AL10">
-        <v>0.59614999999999996</v>
+        <v>0.58714999999999995</v>
       </c>
       <c r="AM10">
-        <v>0.63124999999999998</v>
+        <v>0.61619999999999997</v>
       </c>
       <c r="AN10">
-        <v>0.59975000000000001</v>
+        <v>0.61</v>
       </c>
       <c r="AO10">
-        <v>0.58799999999999997</v>
+        <v>0.60329999999999995</v>
       </c>
       <c r="AP10">
-        <v>0.60309999999999997</v>
+        <v>0.63380000000000003</v>
       </c>
       <c r="AQ10">
-        <v>0.63900000000000001</v>
+        <v>0.60994999999999999</v>
       </c>
       <c r="AR10">
-        <v>0.61895</v>
+        <v>0.57894999999999996</v>
       </c>
       <c r="AS10">
-        <v>0.60004999999999997</v>
+        <v>0.60109999999999997</v>
       </c>
       <c r="AT10">
-        <v>0.63375000000000004</v>
+        <v>0.61685000000000001</v>
       </c>
       <c r="AU10">
-        <v>0.60875000000000001</v>
+        <v>0.54610000000000003</v>
       </c>
       <c r="AV10">
-        <v>0.65029999999999999</v>
+        <v>0.60529999999999995</v>
       </c>
       <c r="AW10">
-        <v>0.61170000000000002</v>
+        <v>0.60885</v>
       </c>
       <c r="AX10">
-        <v>0.63714999999999999</v>
+        <v>0.62649999999999995</v>
       </c>
     </row>
     <row r="11" spans="1:50" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>0.64415</v>
+        <v>0.59094999999999998</v>
       </c>
       <c r="B11">
-        <v>0.58525000000000005</v>
+        <v>0.57215000000000005</v>
       </c>
       <c r="C11">
-        <v>0.61109999999999998</v>
+        <v>0.56499999999999995</v>
       </c>
       <c r="D11">
-        <v>0.57599999999999996</v>
+        <v>0.62060000000000004</v>
       </c>
       <c r="E11">
-        <v>0.62475000000000003</v>
+        <v>0.55779999999999996</v>
       </c>
       <c r="F11">
-        <v>0.57845000000000002</v>
+        <v>0.60975000000000001</v>
       </c>
       <c r="G11">
-        <v>0.57709999999999995</v>
+        <v>0.58894999999999997</v>
       </c>
       <c r="H11">
-        <v>0.61240000000000006</v>
+        <v>0.60919999999999996</v>
       </c>
       <c r="I11">
-        <v>0.60960000000000003</v>
+        <v>0.5736</v>
       </c>
       <c r="J11">
-        <v>0.61455000000000004</v>
+        <v>0.59314999999999996</v>
       </c>
       <c r="K11">
-        <v>0.57584999999999997</v>
+        <v>0.5847</v>
       </c>
       <c r="L11">
-        <v>0.59119999999999995</v>
+        <v>0.61175000000000002</v>
       </c>
       <c r="M11">
-        <v>0.59870000000000001</v>
+        <v>0.60229999999999995</v>
       </c>
       <c r="N11">
-        <v>0.63214999999999999</v>
+        <v>0.62155000000000005</v>
       </c>
       <c r="O11">
-        <v>0.60019999999999996</v>
+        <v>0.63549999999999995</v>
       </c>
       <c r="P11">
-        <v>0.61645000000000005</v>
+        <v>0.60204999999999997</v>
       </c>
       <c r="Q11">
-        <v>0.60245000000000004</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="R11">
-        <v>0.59335000000000004</v>
+        <v>0.63590000000000002</v>
       </c>
       <c r="S11">
-        <v>0.63009999999999999</v>
+        <v>0.57240000000000002</v>
       </c>
       <c r="T11">
-        <v>0.58950000000000002</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="U11">
-        <v>0.62709999999999999</v>
+        <v>0.60185</v>
       </c>
       <c r="V11">
-        <v>0.60309999999999997</v>
+        <v>0.57189999999999996</v>
       </c>
       <c r="W11">
-        <v>0.56830000000000003</v>
+        <v>0.65710000000000002</v>
       </c>
       <c r="X11">
-        <v>0.58465</v>
+        <v>0.59735000000000005</v>
       </c>
       <c r="Y11">
-        <v>0.60819999999999996</v>
+        <v>0.59209999999999996</v>
       </c>
       <c r="Z11">
-        <v>0.61760000000000004</v>
+        <v>0.58965000000000001</v>
       </c>
       <c r="AA11">
-        <v>0.61224999999999996</v>
+        <v>0.61495</v>
       </c>
       <c r="AB11">
-        <v>0.62380000000000002</v>
+        <v>0.57079999999999997</v>
       </c>
       <c r="AC11">
-        <v>0.61350000000000005</v>
+        <v>0.57735000000000003</v>
       </c>
       <c r="AD11">
-        <v>0.59089999999999998</v>
+        <v>0.55035000000000001</v>
       </c>
       <c r="AE11">
-        <v>0.62160000000000004</v>
+        <v>0.61609999999999998</v>
       </c>
       <c r="AF11">
-        <v>0.62639999999999996</v>
+        <v>0.56240000000000001</v>
       </c>
       <c r="AG11">
-        <v>0.60024999999999995</v>
+        <v>0.58330000000000004</v>
       </c>
       <c r="AH11">
-        <v>0.60055000000000003</v>
+        <v>0.58140000000000003</v>
       </c>
       <c r="AI11">
-        <v>0.61180000000000001</v>
+        <v>0.61965000000000003</v>
       </c>
       <c r="AJ11">
-        <v>0.60019999999999996</v>
+        <v>0.59524999999999995</v>
       </c>
       <c r="AK11">
-        <v>0.60880000000000001</v>
+        <v>0.64875000000000005</v>
       </c>
       <c r="AL11">
-        <v>0.58975</v>
+        <v>0.56384999999999996</v>
       </c>
       <c r="AM11">
-        <v>0.60704999999999998</v>
+        <v>0.60275000000000001</v>
       </c>
       <c r="AN11">
-        <v>0.57645000000000002</v>
+        <v>0.59419999999999995</v>
       </c>
       <c r="AO11">
-        <v>0.58309999999999995</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="AP11">
-        <v>0.59835000000000005</v>
+        <v>0.62265000000000004</v>
       </c>
       <c r="AQ11">
-        <v>0.60389999999999999</v>
+        <v>0.59930000000000005</v>
       </c>
       <c r="AR11">
-        <v>0.60555000000000003</v>
+        <v>0.59375</v>
       </c>
       <c r="AS11">
-        <v>0.60245000000000004</v>
+        <v>0.59799999999999998</v>
       </c>
       <c r="AT11">
-        <v>0.63070000000000004</v>
+        <v>0.60185</v>
       </c>
       <c r="AU11">
-        <v>0.60004999999999997</v>
+        <v>0.52654999999999996</v>
       </c>
       <c r="AV11">
-        <v>0.66379999999999995</v>
+        <v>0.59130000000000005</v>
       </c>
       <c r="AW11">
-        <v>0.5827</v>
+        <v>0.60224999999999995</v>
       </c>
       <c r="AX11">
-        <v>0.65234999999999999</v>
+        <v>0.623</v>
       </c>
     </row>
   </sheetData>
